--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>prepare the positioning statement</t>
   </si>
@@ -111,9 +112,6 @@
     <t>gradeName</t>
   </si>
   <si>
-    <t>BusHomeArea</t>
-  </si>
-  <si>
     <t>discountType</t>
   </si>
   <si>
@@ -126,9 +124,6 @@
     <t>BusNumber</t>
   </si>
   <si>
-    <t>Bus</t>
-  </si>
-  <si>
     <t>busPlateNamber</t>
   </si>
   <si>
@@ -147,9 +142,6 @@
     <t>student</t>
   </si>
   <si>
-    <t>bus_home_area</t>
-  </si>
-  <si>
     <t>toschool_bus_id</t>
   </si>
   <si>
@@ -160,6 +152,72 @@
   </si>
   <si>
     <t>class_name</t>
+  </si>
+  <si>
+    <t>BusHomeAreas</t>
+  </si>
+  <si>
+    <t>home_area</t>
+  </si>
+  <si>
+    <t>BusHomeArea_id</t>
+  </si>
+  <si>
+    <t>bus_home_area_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Admin </t>
+  </si>
+  <si>
+    <t>Student Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial </t>
+  </si>
+  <si>
+    <t>Add new school year</t>
+  </si>
+  <si>
+    <t>Add grades to school year</t>
+  </si>
+  <si>
+    <t>Add Buses to school year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Home areas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add new student </t>
+  </si>
+  <si>
+    <t>upload student info from excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update student info </t>
+  </si>
+  <si>
+    <t>search for student record</t>
+  </si>
+  <si>
+    <t>School Manager</t>
+  </si>
+  <si>
+    <t>Get Reprots</t>
+  </si>
+  <si>
+    <t>Search for Student info</t>
+  </si>
+  <si>
+    <t>Log Student Bus fees payments</t>
+  </si>
+  <si>
+    <t>Log Student tuition fees payments</t>
+  </si>
+  <si>
+    <t>Add Students to school year</t>
+  </si>
+  <si>
+    <t>Add Students to Grades and Class</t>
   </si>
 </sst>
 </file>
@@ -548,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D6:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +622,7 @@
   <sheetData>
     <row r="6" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -582,7 +640,7 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="4:10" x14ac:dyDescent="0.25">
@@ -642,7 +700,7 @@
         <v>20</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -656,13 +714,13 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="4:10" x14ac:dyDescent="0.25">
@@ -673,70 +731,163 @@
         <v>26</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="4:10" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>14</v>
       </c>
+      <c r="F14" t="s">
+        <v>42</v>
+      </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="4:10" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="J15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>40</v>
+    <row r="19" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
